--- a/biology/Médecine/Trémélimumab/Trémélimumab.xlsx
+++ b/biology/Médecine/Trémélimumab/Trémélimumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A9m%C3%A9limumab</t>
+          <t>Trémélimumab</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le trémélimumab est un principe actif utilisé dans l'industrie pharmaceutique, vendu sous le nom de marque Imjudo[1].
+Le trémélimumab est un principe actif utilisé dans l'industrie pharmaceutique, vendu sous le nom de marque Imjudo.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A9m%C3%A9limumab</t>
+          <t>Trémélimumab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un médicament utilisé pour traiter le cancer hépatocellulaire qui ne peut être éliminé par chirurgie seule et certains types de cancer du poumon non à petites cellules  qui se sont propagés à d'autres parties du corps[1]. Il est généralement utilisé avec le durvalumab. Il est administré par injection graduelle dans une veine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un médicament utilisé pour traiter le cancer hépatocellulaire qui ne peut être éliminé par chirurgie seule et certains types de cancer du poumon non à petites cellules  qui se sont propagés à d'autres parties du corps. Il est généralement utilisé avec le durvalumab. Il est administré par injection graduelle dans une veine.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A9m%C3%A9limumab</t>
+          <t>Trémélimumab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les suivants : éruption cutanée, diarrhée, fatigue, démangeaisons et douleurs musculaires; d'autres effets secondaires peuvent inclure des problèmes du système immunitaire tels que la pneumonie, la colite et l'hépatite, ainsi que des réactions à la perfusion  [1]. L'utilisation pendant la grossesse peut nuire au fœtus[1]. Il s'agit d'un anticorps monoclonal et d'un bloqueur de point de contrôle immunitaire qui bloque l'antigène 4 associé aux lymphocytes T cytotoxiques [1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les suivants : éruption cutanée, diarrhée, fatigue, démangeaisons et douleurs musculaires; d'autres effets secondaires peuvent inclure des problèmes du système immunitaire tels que la pneumonie, la colite et l'hépatite, ainsi que des réactions à la perfusion  . L'utilisation pendant la grossesse peut nuire au fœtus. Il s'agit d'un anticorps monoclonal et d'un bloqueur de point de contrôle immunitaire qui bloque l'antigène 4 associé aux lymphocytes T cytotoxiques ,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A9m%C3%A9limumab</t>
+          <t>Trémélimumab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trémelimumab a été approuvé pour un usage médical aux États-Unis en 2022[1]. En 2022, le fabricant a demandé l'approbation en Europe[3]. Aux États-Unis, 75 mg coûtent environ 10 300 USD en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trémelimumab a été approuvé pour un usage médical aux États-Unis en 2022. En 2022, le fabricant a demandé l'approbation en Europe. Aux États-Unis, 75 mg coûtent environ 10 300 USD en 2022.
 </t>
         </is>
       </c>
